--- a/output/k_tr_analysis_fixed.xlsx
+++ b/output/k_tr_analysis_fixed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\caterina\GitHub\RLC_fibersim_project\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B8CFED-FCBD-4A18-BE6A-3E8DA4BD85D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8F2070-9473-472C-9F56-0195D2113FBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="11">
   <si>
     <t>curve</t>
   </si>
@@ -421,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:C21"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,16 +472,16 @@
         <v>9</v>
       </c>
       <c r="D2">
-        <v>37786.400000000001</v>
+        <v>38134.400000000001</v>
       </c>
       <c r="E2">
-        <v>24.713627102354341</v>
+        <v>23.559050397321499</v>
       </c>
       <c r="F2">
-        <v>23505.825527043678</v>
+        <v>23405.4974841845</v>
       </c>
       <c r="G2">
-        <v>0.97583659260583522</v>
+        <v>0.98115477321886435</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -495,16 +495,16 @@
         <v>9</v>
       </c>
       <c r="D3">
-        <v>37529.1</v>
+        <v>36874.1</v>
       </c>
       <c r="E3">
-        <v>26.07151095776582</v>
+        <v>25.93872307936121</v>
       </c>
       <c r="F3">
-        <v>23597.89848679756</v>
+        <v>23693.184346494691</v>
       </c>
       <c r="G3">
-        <v>0.97179415963827331</v>
+        <v>0.98424192321764881</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -518,16 +518,16 @@
         <v>9</v>
       </c>
       <c r="D4">
-        <v>37598.5</v>
+        <v>37517</v>
       </c>
       <c r="E4">
-        <v>24.63041615014885</v>
+        <v>27.212099042808362</v>
       </c>
       <c r="F4">
-        <v>23849.697961324138</v>
+        <v>23831.369085964001</v>
       </c>
       <c r="G4">
-        <v>0.97709804916670018</v>
+        <v>0.98221263312124996</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -541,16 +541,16 @@
         <v>9</v>
       </c>
       <c r="D5">
-        <v>37367.4</v>
+        <v>37663.9</v>
       </c>
       <c r="E5">
-        <v>26.154358850780511</v>
+        <v>28.19008572249232</v>
       </c>
       <c r="F5">
-        <v>23862.186143556941</v>
+        <v>24431.37160896217</v>
       </c>
       <c r="G5">
-        <v>0.97369408830546855</v>
+        <v>0.98645918172128289</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -564,361 +564,821 @@
         <v>9</v>
       </c>
       <c r="D6">
-        <v>37223.199999999997</v>
+        <v>38013.199999999997</v>
       </c>
       <c r="E6">
-        <v>23.68433925265267</v>
+        <v>26.629048769438011</v>
       </c>
       <c r="F6">
-        <v>23986.52561542287</v>
+        <v>24430.886680538631</v>
       </c>
       <c r="G6">
-        <v>0.97322232622208116</v>
+        <v>0.98108977376768935</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7">
-        <v>47322.8</v>
+        <v>37475.1</v>
       </c>
       <c r="E7">
-        <v>17.09279810673414</v>
+        <v>26.09081295936635</v>
       </c>
       <c r="F7">
-        <v>27421.382671052241</v>
+        <v>22581.592434760711</v>
       </c>
       <c r="G7">
-        <v>0.97817064720945524</v>
+        <v>0.97164435552211437</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8">
-        <v>48472</v>
+        <v>36806.1</v>
       </c>
       <c r="E8">
-        <v>19.941932718840199</v>
+        <v>25.317709070684291</v>
       </c>
       <c r="F8">
-        <v>28693.206421404771</v>
+        <v>23441.93623648215</v>
       </c>
       <c r="G8">
-        <v>0.98633404976705541</v>
+        <v>0.98204410112623619</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9">
-        <v>47486.2</v>
+        <v>37227.599999999999</v>
       </c>
       <c r="E9">
-        <v>17.52657514378734</v>
+        <v>27.57785344602161</v>
       </c>
       <c r="F9">
-        <v>27467.683133027331</v>
+        <v>24424.032062328541</v>
       </c>
       <c r="G9">
-        <v>0.96525302589599193</v>
+        <v>0.98048905709025613</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10">
-        <v>47511.7</v>
+        <v>37153.199999999997</v>
       </c>
       <c r="E10">
-        <v>19.42219684593918</v>
+        <v>25.185808503994291</v>
       </c>
       <c r="F10">
-        <v>26668.197197868281</v>
+        <v>24594.34093725765</v>
       </c>
       <c r="G10">
-        <v>0.96294042975422811</v>
+        <v>0.97489281469114741</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11">
-        <v>47734</v>
+        <v>38282.699999999997</v>
       </c>
       <c r="E11">
-        <v>18.352653386448409</v>
+        <v>27.81209572835645</v>
       </c>
       <c r="F11">
-        <v>27502.999937762201</v>
+        <v>25376.576793063279</v>
       </c>
       <c r="G11">
-        <v>0.97237778334577896</v>
+        <v>0.98082384134435552</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12">
-        <v>53587.199999999997</v>
+        <v>48471.6</v>
       </c>
       <c r="E12">
-        <v>29.264246154601121</v>
+        <v>16.61903558713032</v>
       </c>
       <c r="F12">
-        <v>35533.811115090983</v>
+        <v>26446.356173581182</v>
       </c>
       <c r="G12">
-        <v>0.98501182333755621</v>
+        <v>0.97101599480971301</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13">
-        <v>53811.9</v>
+        <v>46365.2</v>
       </c>
       <c r="E13">
-        <v>29.074536242411359</v>
+        <v>19.355840067696281</v>
       </c>
       <c r="F13">
-        <v>36016.438621607696</v>
+        <v>26862.40831071715</v>
       </c>
       <c r="G13">
-        <v>0.98696756395048191</v>
+        <v>0.95431193156963412</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14">
-        <v>54211</v>
+        <v>47249.7</v>
       </c>
       <c r="E14">
-        <v>30.765689444325918</v>
+        <v>19.007044493841889</v>
       </c>
       <c r="F14">
-        <v>35028.304704373397</v>
+        <v>27760.30956833707</v>
       </c>
       <c r="G14">
-        <v>0.98468640722093159</v>
+        <v>0.97901473001136796</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15">
-        <v>52860.9</v>
+        <v>48139</v>
       </c>
       <c r="E15">
-        <v>24.791381871343962</v>
+        <v>18.33503339377911</v>
       </c>
       <c r="F15">
-        <v>34014.372641799928</v>
+        <v>26633.988288672092</v>
       </c>
       <c r="G15">
-        <v>0.97991139140602601</v>
+        <v>0.97412410213088763</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16">
-        <v>53733.1</v>
+        <v>47819.4</v>
       </c>
       <c r="E16">
-        <v>26.903702586514239</v>
+        <v>21.27402239875482</v>
       </c>
       <c r="F16">
-        <v>35294.09744047172</v>
+        <v>27459.573552614329</v>
       </c>
       <c r="G16">
-        <v>0.98218601846146347</v>
+        <v>0.97628721752913872</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C17" t="s">
         <v>10</v>
       </c>
       <c r="D17">
-        <v>65918.100000000006</v>
+        <v>48466.8</v>
       </c>
       <c r="E17">
-        <v>25.589504919468329</v>
+        <v>19.618064806194241</v>
       </c>
       <c r="F17">
-        <v>40592.303959595149</v>
+        <v>27048.61601677732</v>
       </c>
       <c r="G17">
-        <v>0.99095153135309111</v>
+        <v>0.98388219018501677</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
       </c>
       <c r="D18">
-        <v>65323.1</v>
+        <v>48114</v>
       </c>
       <c r="E18">
-        <v>23.64988086314909</v>
+        <v>18.323468727201391</v>
       </c>
       <c r="F18">
-        <v>40455.820465716482</v>
+        <v>27058.48288887176</v>
       </c>
       <c r="G18">
-        <v>0.99050395630958232</v>
+        <v>0.97463649362983684</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
       </c>
       <c r="D19">
-        <v>64877.2</v>
+        <v>48828.800000000003</v>
       </c>
       <c r="E19">
-        <v>23.892431966576581</v>
+        <v>18.570820625736641</v>
       </c>
       <c r="F19">
-        <v>39860.152762793106</v>
+        <v>27265.736862861351</v>
       </c>
       <c r="G19">
-        <v>0.98950204683781939</v>
+        <v>0.9799148813848152</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C20" t="s">
         <v>10</v>
       </c>
       <c r="D20">
-        <v>65834.2</v>
+        <v>48051.3</v>
       </c>
       <c r="E20">
-        <v>23.78972620528884</v>
+        <v>17.927590697315001</v>
       </c>
       <c r="F20">
-        <v>39946.995747478657</v>
+        <v>27789.586385031798</v>
       </c>
       <c r="G20">
-        <v>0.99358379242986394</v>
+        <v>0.97771575367057217</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <v>48114.2</v>
+      </c>
+      <c r="E21">
+        <v>18.188787590515499</v>
+      </c>
+      <c r="F21">
+        <v>26810.647749538981</v>
+      </c>
+      <c r="G21">
+        <v>0.97456134658540117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22">
+        <v>53463.7</v>
+      </c>
+      <c r="E22">
+        <v>26.717475154950769</v>
+      </c>
+      <c r="F22">
+        <v>35235.707173372197</v>
+      </c>
+      <c r="G22">
+        <v>0.98394774877316515</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23">
+        <v>53387.9</v>
+      </c>
+      <c r="E23">
+        <v>28.254964929105689</v>
+      </c>
+      <c r="F23">
+        <v>36090.997745846733</v>
+      </c>
+      <c r="G23">
+        <v>0.98535405375200702</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24">
+        <v>53384.1</v>
+      </c>
+      <c r="E24">
+        <v>29.04808091606985</v>
+      </c>
+      <c r="F24">
+        <v>36077.817622125178</v>
+      </c>
+      <c r="G24">
+        <v>0.99003874814330006</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25">
+        <v>53222.7</v>
+      </c>
+      <c r="E25">
+        <v>28.363709931724848</v>
+      </c>
+      <c r="F25">
+        <v>35586.864331513993</v>
+      </c>
+      <c r="G25">
+        <v>0.98458789242772404</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26">
+        <v>53670.3</v>
+      </c>
+      <c r="E26">
+        <v>25.709095401477391</v>
+      </c>
+      <c r="F26">
+        <v>34860.962737601687</v>
+      </c>
+      <c r="G26">
+        <v>0.98020306131824309</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27">
+        <v>53870.6</v>
+      </c>
+      <c r="E27">
+        <v>30.296241245525891</v>
+      </c>
+      <c r="F27">
+        <v>35052.878894529233</v>
+      </c>
+      <c r="G27">
+        <v>0.98619713969113432</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28">
+        <v>53570.6</v>
+      </c>
+      <c r="E28">
+        <v>26.741529505039491</v>
+      </c>
+      <c r="F28">
+        <v>35073.359269224937</v>
+      </c>
+      <c r="G28">
+        <v>0.98595575755906828</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29">
+        <v>53717.599999999999</v>
+      </c>
+      <c r="E29">
+        <v>27.068659346678949</v>
+      </c>
+      <c r="F29">
+        <v>34963.191537081053</v>
+      </c>
+      <c r="G29">
+        <v>0.98400508975939271</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30">
+        <v>54176.5</v>
+      </c>
+      <c r="E30">
+        <v>26.769763035324299</v>
+      </c>
+      <c r="F30">
+        <v>35170.973946796723</v>
+      </c>
+      <c r="G30">
+        <v>0.98754609679156968</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31">
+        <v>54138.2</v>
+      </c>
+      <c r="E31">
+        <v>27.80746743302122</v>
+      </c>
+      <c r="F31">
+        <v>34827.729137149887</v>
+      </c>
+      <c r="G31">
+        <v>0.98105156191351328</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>4</v>
       </c>
-      <c r="B21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21">
-        <v>65642.899999999994</v>
-      </c>
-      <c r="E21">
-        <v>22.901495232731762</v>
-      </c>
-      <c r="F21">
-        <v>40150.563917709391</v>
-      </c>
-      <c r="G21">
-        <v>0.98860654241627777</v>
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32">
+        <v>65511.7</v>
+      </c>
+      <c r="E32">
+        <v>25.00904231704294</v>
+      </c>
+      <c r="F32">
+        <v>40306.533070441968</v>
+      </c>
+      <c r="G32">
+        <v>0.99173690376256907</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33">
+        <v>65975.600000000006</v>
+      </c>
+      <c r="E33">
+        <v>24.658892415889959</v>
+      </c>
+      <c r="F33">
+        <v>40747.565793838767</v>
+      </c>
+      <c r="G33">
+        <v>0.99266269739098012</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34">
+        <v>65034.3</v>
+      </c>
+      <c r="E34">
+        <v>24.87044194976955</v>
+      </c>
+      <c r="F34">
+        <v>40215.111793031203</v>
+      </c>
+      <c r="G34">
+        <v>0.99117393560813027</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>4</v>
+      </c>
+      <c r="B35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35">
+        <v>64865.599999999999</v>
+      </c>
+      <c r="E35">
+        <v>23.30948824444145</v>
+      </c>
+      <c r="F35">
+        <v>40183.986385117823</v>
+      </c>
+      <c r="G35">
+        <v>0.99074916157837967</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>4</v>
+      </c>
+      <c r="B36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36">
+        <v>64887.6</v>
+      </c>
+      <c r="E36">
+        <v>23.764399012539961</v>
+      </c>
+      <c r="F36">
+        <v>38743.951859179018</v>
+      </c>
+      <c r="G36">
+        <v>0.98899205014732905</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>4</v>
+      </c>
+      <c r="B37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37">
+        <v>65211.1</v>
+      </c>
+      <c r="E37">
+        <v>23.142619278738099</v>
+      </c>
+      <c r="F37">
+        <v>39459.151948318737</v>
+      </c>
+      <c r="G37">
+        <v>0.99172574154421533</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>4</v>
+      </c>
+      <c r="B38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38">
+        <v>65997.600000000006</v>
+      </c>
+      <c r="E38">
+        <v>24.527201717327749</v>
+      </c>
+      <c r="F38">
+        <v>39769.750940244579</v>
+      </c>
+      <c r="G38">
+        <v>0.98762819010764513</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>4</v>
+      </c>
+      <c r="B39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39">
+        <v>64449.7</v>
+      </c>
+      <c r="E39">
+        <v>24.108374957956912</v>
+      </c>
+      <c r="F39">
+        <v>39870.565476996773</v>
+      </c>
+      <c r="G39">
+        <v>0.99308167798907965</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>4</v>
+      </c>
+      <c r="B40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40">
+        <v>65110.3</v>
+      </c>
+      <c r="E40">
+        <v>25.38167633793158</v>
+      </c>
+      <c r="F40">
+        <v>40862.462339047037</v>
+      </c>
+      <c r="G40">
+        <v>0.99017324719804234</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>4</v>
+      </c>
+      <c r="B41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41">
+        <v>65227.7</v>
+      </c>
+      <c r="E41">
+        <v>24.42038989802148</v>
+      </c>
+      <c r="F41">
+        <v>39725.061022646492</v>
+      </c>
+      <c r="G41">
+        <v>0.98588821580566122</v>
       </c>
     </row>
   </sheetData>
